--- a/Data/Transitions/19281931Translation.xlsx
+++ b/Data/Transitions/19281931Translation.xlsx
@@ -106,13 +106,13 @@
     <t>{45.0: 1.0}</t>
   </si>
   <si>
-    <t>{46.0: 1.0, 90.0: 0.005317945236478841, 246.0: 0.0014045075103535124}</t>
+    <t>{46.0: 1.0, 90.0: 0.005340909090909091, 246.0: 0.0014045099541301804}</t>
   </si>
   <si>
     <t>{47.0: 1.0}</t>
   </si>
   <si>
-    <t>{48.0: 1.0, 443.0: 0.03765690376569038}</t>
+    <t>{48.0: 1.0, 443.0: 0.03748355984217448}</t>
   </si>
   <si>
     <t>{49.0: 1.0}</t>
@@ -190,7 +190,7 @@
     <t>{85.0: 1.0}</t>
   </si>
   <si>
-    <t>{86.0: 0.9977833604255948}</t>
+    <t>{86.0: 0.9977641973468475}</t>
   </si>
   <si>
     <t>{87.0: 1.0}</t>
@@ -202,10 +202,10 @@
     <t>{89.0: 1.0}</t>
   </si>
   <si>
-    <t>{90.0: 0.9946820547635211}</t>
-  </si>
-  <si>
-    <t>{91.0: 0.9996668959460804}</t>
+    <t>{90.0: 0.9946590909090909}</t>
+  </si>
+  <si>
+    <t>{91.0: 0.9996710680889056}</t>
   </si>
   <si>
     <t>{92.0: 1.0}</t>
@@ -250,7 +250,7 @@
     <t>{105.0: 1.0}</t>
   </si>
   <si>
-    <t>{107.0: 1.0, 86.0: 0.0022166395744052016}</t>
+    <t>{107.0: 1.0, 86.0: 0.0022358026531524816}</t>
   </si>
   <si>
     <t>{108.0: 1.0}</t>
@@ -298,7 +298,7 @@
     <t>{151.0: 1.0}</t>
   </si>
   <si>
-    <t>{152.0: 1.0, 975.0: 0.0008218266525426588}</t>
+    <t>{152.0: 1.0, 975.0: 0.0008217910235256162}</t>
   </si>
   <si>
     <t>{162.0: 1.0}</t>
@@ -328,7 +328,7 @@
     <t>{170.0: 1.0}</t>
   </si>
   <si>
-    <t>{171.0: 0.9941326092971441}</t>
+    <t>{171.0: 0.994147510254659}</t>
   </si>
   <si>
     <t>{172.0: 1.0, 81.0: 0.004697040864255519}</t>
@@ -367,7 +367,7 @@
     <t>{183.0: 1.0}</t>
   </si>
   <si>
-    <t>{184.0: 1.0, 171.0: 0.0012581302796420301}</t>
+    <t>{184.0: 1.0, 171.0: 0.0012581491376350883}</t>
   </si>
   <si>
     <t>{185.0: 1.0}</t>
@@ -415,7 +415,7 @@
     <t>{215.0: 1.0}</t>
   </si>
   <si>
-    <t>{217.0: 0.9946335737045111}</t>
+    <t>{217.0: 0.9945955075156223}</t>
   </si>
   <si>
     <t>{218.0: 1.0}</t>
@@ -442,7 +442,7 @@
     <t>{227.0: 1.0}</t>
   </si>
   <si>
-    <t>{228.0: 1.0, 738.0: 0.003872216844143272}</t>
+    <t>{228.0: 1.0, 738.0: 0.003875968992248062}</t>
   </si>
   <si>
     <t>{229.0: 1.0}</t>
@@ -481,13 +481,16 @@
     <t>{241.0: 1.0}</t>
   </si>
   <si>
+    <t>{242.0: 1.0}</t>
+  </si>
+  <si>
     <t>{243.0: 1.0}</t>
   </si>
   <si>
     <t>{244.0: 1.0}</t>
   </si>
   <si>
-    <t>{246.0: 0.9970726498500526}</t>
+    <t>{246.0: 0.9970743847093252}</t>
   </si>
   <si>
     <t>{247.0: 1.0}</t>
@@ -574,7 +577,7 @@
     <t>{276.0: 1.0}</t>
   </si>
   <si>
-    <t>{277.0: 0.9602417730020147}</t>
+    <t>{277.0: 0.9600539811066127}</t>
   </si>
   <si>
     <t>{278.0: 1.0}</t>
@@ -601,7 +604,7 @@
     <t>{285.0: 1.0}</t>
   </si>
   <si>
-    <t>{286.0: 1.0, 909.0: 0.04610555228565823}</t>
+    <t>{286.0: 1.0, 909.0: 0.047051756932625886}</t>
   </si>
   <si>
     <t>{287.0: 1.0}</t>
@@ -685,7 +688,7 @@
     <t>{314.0: 1.0}</t>
   </si>
   <si>
-    <t>{315.0: 1.0, 217.0: 0.005366426295488848}</t>
+    <t>{315.0: 1.0, 217.0: 0.005404492484377639}</t>
   </si>
   <si>
     <t>{316.0: 1.0}</t>
@@ -700,9 +703,6 @@
     <t>{319.0: 1.0}</t>
   </si>
   <si>
-    <t>{320.0: 1.0}</t>
-  </si>
-  <si>
     <t>{321.0: 1.0}</t>
   </si>
   <si>
@@ -769,7 +769,7 @@
     <t>{419.0: 1.0}</t>
   </si>
   <si>
-    <t>{420.0: 0.9922685521707526}</t>
+    <t>{420.0: 0.9922624165068448}</t>
   </si>
   <si>
     <t>{421.0: 1.0}</t>
@@ -829,7 +829,7 @@
     <t>{442.0: 1.0}</t>
   </si>
   <si>
-    <t>{443.0: 0.9623430962343096}</t>
+    <t>{443.0: 0.9625164401578256}</t>
   </si>
   <si>
     <t>{475.0: 1.0}</t>
@@ -1024,7 +1024,7 @@
     <t>{578.0: 1.0}</t>
   </si>
   <si>
-    <t>{580.0: 0.9988244868432951, 728.0: 0.09450497394599716}</t>
+    <t>{580.0: 0.9988196840384964, 728.0: 0.09405940594059406}</t>
   </si>
   <si>
     <t>{581.0: 1.0}</t>
@@ -1063,7 +1063,7 @@
     <t>{592.0: 1.0}</t>
   </si>
   <si>
-    <t>{593.0: 0.9989628512162927}</t>
+    <t>{593.0: 0.9989665539270951}</t>
   </si>
   <si>
     <t>{595.0: 1.0}</t>
@@ -1075,10 +1075,10 @@
     <t>{597.0: 1.0}</t>
   </si>
   <si>
-    <t>{598.0: 1.0, 599.0: 0.007421875}</t>
-  </si>
-  <si>
-    <t>{599.0: 0.992578125}</t>
+    <t>{598.0: 1.0, 599.0: 0.007639726578206675}</t>
+  </si>
+  <si>
+    <t>{599.0: 0.9923602734217933}</t>
   </si>
   <si>
     <t>{600.0: 1.0}</t>
@@ -1279,7 +1279,7 @@
     <t>{707.0: 1.0}</t>
   </si>
   <si>
-    <t>{728.0: 0.9054950260540029, 580.0: 0.001175513156704946}</t>
+    <t>{728.0: 0.905940594059406, 580.0: 0.001180315961503541}</t>
   </si>
   <si>
     <t>{729.0: 1.0}</t>
@@ -1309,7 +1309,7 @@
     <t>{737.0: 1.0}</t>
   </si>
   <si>
-    <t>{738.0: 0.9961277831558567}</t>
+    <t>{738.0: 0.9961240310077519}</t>
   </si>
   <si>
     <t>{739.0: 1.0}</t>
@@ -1453,7 +1453,7 @@
     <t>{788.0: 1.0}</t>
   </si>
   <si>
-    <t>{789.0: 1.0, 246.0: 0.0015228426395939086}</t>
+    <t>{789.0: 1.0, 246.0: 0.0015211053365445557}</t>
   </si>
   <si>
     <t>{831.0: 1.0}</t>
@@ -1513,7 +1513,7 @@
     <t>{849.0: 1.0}</t>
   </si>
   <si>
-    <t>{850.0: 1.0, 277.0: 0.03975822699798522}</t>
+    <t>{850.0: 1.0, 277.0: 0.039946018893387315}</t>
   </si>
   <si>
     <t>{851.0: 1.0}</t>
@@ -1522,7 +1522,7 @@
     <t>{852.0: 1.0}</t>
   </si>
   <si>
-    <t>{853.0: 1.0, 91.0: 0.00033310405391959646}</t>
+    <t>{853.0: 1.0, 91.0: 0.00032893191109440345}</t>
   </si>
   <si>
     <t>{854.0: 1.0}</t>
@@ -1603,7 +1603,7 @@
     <t>{907.0: 1.0}</t>
   </si>
   <si>
-    <t>{909.0: 0.9538944477143417}</t>
+    <t>{909.0: 0.9529482430673741}</t>
   </si>
   <si>
     <t>{910.0: 1.0}</t>
@@ -1618,7 +1618,7 @@
     <t>{914.0: 0.9747840298855942}</t>
   </si>
   <si>
-    <t>{915.0: 1.0, 171.0: 0.0035617012361198407, 420.0: 0.00773144782924734}</t>
+    <t>{915.0: 1.0, 171.0: 0.003550172287772789, 420.0: 0.007737583493155215}</t>
   </si>
   <si>
     <t>{916.0: 1.0}</t>
@@ -1684,7 +1684,7 @@
     <t>{936.0: 1.0}</t>
   </si>
   <si>
-    <t>{937.0: 1.0, 171.0: 0.001047559187094071, 593.0: 0.0010371487837073355}</t>
+    <t>{937.0: 1.0, 171.0: 0.0010441683199331733, 593.0: 0.001033446072904923}</t>
   </si>
   <si>
     <t>{938.0: 1.0}</t>
@@ -1708,7 +1708,7 @@
     <t>{944.0: 1.0}</t>
   </si>
   <si>
-    <t>{971.0: 1.0, 975.0: 0.002119815668202765}</t>
+    <t>{971.0: 1.0, 975.0: 0.002163077212451801}</t>
   </si>
   <si>
     <t>{139.0: 0.3506731946144431}</t>
@@ -1720,7 +1720,7 @@
     <t>{974.0: 1.0}</t>
   </si>
   <si>
-    <t>{975.0: 0.9970583576792547}</t>
+    <t>{975.0: 0.9970151317640227}</t>
   </si>
   <si>
     <t>{976.0: 1.0}</t>
@@ -1756,7 +1756,7 @@
     <t>{34.0: 0.6476663616158975, 995.0: 0.3523336383841025}</t>
   </si>
   <si>
-    <t>{46.0: 0.982318384720093, 90.0: 0.014240889599581853, 246.0: 0.003440725680325305}</t>
+    <t>{46.0: 0.9823183847200929, 90.0: 0.014240889599581853, 246.0: 0.003440725680325305}</t>
   </si>
   <si>
     <t>{48.0: 0.9182990922121357, 443.0: 0.0817009077878643}</t>
@@ -1801,7 +1801,7 @@
     <t>{217.0: 1.0}</t>
   </si>
   <si>
-    <t>{221.0: 0.9001536098310291, 999.0: 0.09984639016897082}</t>
+    <t>{221.0: 0.9001536098310293, 999.0: 0.09984639016897082}</t>
   </si>
   <si>
     <t>{228.0: 0.9923809523809523, 738.0: 0.00761904761904762}</t>
@@ -1822,7 +1822,7 @@
     <t>{277.0: 1.0}</t>
   </si>
   <si>
-    <t>{286.0: 0.9156799425905993, 909.0: 0.0843200574094008}</t>
+    <t>{286.0: 0.9161163662323755, 909.0: 0.08388363376762449}</t>
   </si>
   <si>
     <t>{306.0: 0.9617261904761905, 142.0: 0.03827380952380952}</t>
@@ -1858,7 +1858,7 @@
     <t>{563.0: 1.0}</t>
   </si>
   <si>
-    <t>{580.0: 0.965137614678899, 728.0: 0.03486238532110092}</t>
+    <t>{580.0: 0.965, 728.0: 0.035}</t>
   </si>
   <si>
     <t>{583.0: 0.6131836291198841, 742.0: 0.3868163708801159}</t>
@@ -1873,7 +1873,7 @@
     <t>{599.0: 1.0}</t>
   </si>
   <si>
-    <t>{728.0: 0.9966110531803962, 580.0: 0.003388946819603754}</t>
+    <t>{728.0: 0.9966286307053942, 580.0: 0.0033713692946058093}</t>
   </si>
   <si>
     <t>{738.0: 1.0}</t>
@@ -1903,13 +1903,13 @@
     <t>{914.0: 1.0}</t>
   </si>
   <si>
-    <t>{915.0: 0.949481431917029, 171.0: 0.011375041820006692, 420.0: 0.039143526262964204}</t>
+    <t>{915.0: 0.9494814319170293, 171.0: 0.011375041820006692, 420.0: 0.0391435262629642}</t>
   </si>
   <si>
     <t>{931.0: 1.0}</t>
   </si>
   <si>
-    <t>{937.0: 0.9930522596635553, 171.0: 0.0033101741988785177, 593.0: 0.0036375661375661374}</t>
+    <t>{937.0: 0.9930546558837802, 171.0: 0.0033101821862792672, 593.0: 0.0036351619299405153}</t>
   </si>
   <si>
     <t>{971.0: 0.9941116231438812, 975.0: 0.005888376856118792}</t>
@@ -3964,7 +3964,7 @@
     </row>
     <row r="154" spans="1:3">
       <c r="A154">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B154" t="s">
         <v>155</v>
@@ -3975,7 +3975,7 @@
     </row>
     <row r="155" spans="1:3">
       <c r="A155">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B155" t="s">
         <v>156</v>
@@ -3986,29 +3986,29 @@
     </row>
     <row r="156" spans="1:3">
       <c r="A156">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B156" t="s">
         <v>157</v>
       </c>
       <c r="C156" t="s">
-        <v>597</v>
+        <v>157</v>
       </c>
     </row>
     <row r="157" spans="1:3">
       <c r="A157">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B157" t="s">
         <v>158</v>
       </c>
       <c r="C157" t="s">
-        <v>158</v>
+        <v>597</v>
       </c>
     </row>
     <row r="158" spans="1:3">
       <c r="A158">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B158" t="s">
         <v>159</v>
@@ -4019,7 +4019,7 @@
     </row>
     <row r="159" spans="1:3">
       <c r="A159">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B159" t="s">
         <v>160</v>
@@ -4030,7 +4030,7 @@
     </row>
     <row r="160" spans="1:3">
       <c r="A160">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B160" t="s">
         <v>161</v>
@@ -4041,7 +4041,7 @@
     </row>
     <row r="161" spans="1:3">
       <c r="A161">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B161" t="s">
         <v>162</v>
@@ -4052,7 +4052,7 @@
     </row>
     <row r="162" spans="1:3">
       <c r="A162">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B162" t="s">
         <v>163</v>
@@ -4063,29 +4063,29 @@
     </row>
     <row r="163" spans="1:3">
       <c r="A163">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B163" t="s">
         <v>164</v>
       </c>
       <c r="C163" t="s">
-        <v>598</v>
+        <v>164</v>
       </c>
     </row>
     <row r="164" spans="1:3">
       <c r="A164">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B164" t="s">
         <v>165</v>
       </c>
       <c r="C164" t="s">
-        <v>165</v>
+        <v>598</v>
       </c>
     </row>
     <row r="165" spans="1:3">
       <c r="A165">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B165" t="s">
         <v>166</v>
@@ -4096,7 +4096,7 @@
     </row>
     <row r="166" spans="1:3">
       <c r="A166">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B166" t="s">
         <v>167</v>
@@ -4107,7 +4107,7 @@
     </row>
     <row r="167" spans="1:3">
       <c r="A167">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B167" t="s">
         <v>168</v>
@@ -4118,7 +4118,7 @@
     </row>
     <row r="168" spans="1:3">
       <c r="A168">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B168" t="s">
         <v>169</v>
@@ -4129,7 +4129,7 @@
     </row>
     <row r="169" spans="1:3">
       <c r="A169">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B169" t="s">
         <v>170</v>
@@ -4140,7 +4140,7 @@
     </row>
     <row r="170" spans="1:3">
       <c r="A170">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B170" t="s">
         <v>171</v>
@@ -4151,7 +4151,7 @@
     </row>
     <row r="171" spans="1:3">
       <c r="A171">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B171" t="s">
         <v>172</v>
@@ -4162,7 +4162,7 @@
     </row>
     <row r="172" spans="1:3">
       <c r="A172">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B172" t="s">
         <v>173</v>
@@ -4173,7 +4173,7 @@
     </row>
     <row r="173" spans="1:3">
       <c r="A173">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B173" t="s">
         <v>174</v>
@@ -4184,40 +4184,40 @@
     </row>
     <row r="174" spans="1:3">
       <c r="A174">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B174" t="s">
         <v>175</v>
       </c>
       <c r="C174" t="s">
-        <v>599</v>
+        <v>175</v>
       </c>
     </row>
     <row r="175" spans="1:3">
       <c r="A175">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B175" t="s">
         <v>176</v>
       </c>
       <c r="C175" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="176" spans="1:3">
       <c r="A176">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B176" t="s">
         <v>177</v>
       </c>
       <c r="C176" t="s">
-        <v>177</v>
+        <v>600</v>
       </c>
     </row>
     <row r="177" spans="1:3">
       <c r="A177">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B177" t="s">
         <v>178</v>
@@ -4228,7 +4228,7 @@
     </row>
     <row r="178" spans="1:3">
       <c r="A178">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B178" t="s">
         <v>179</v>
@@ -4239,7 +4239,7 @@
     </row>
     <row r="179" spans="1:3">
       <c r="A179">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B179" t="s">
         <v>180</v>
@@ -4250,7 +4250,7 @@
     </row>
     <row r="180" spans="1:3">
       <c r="A180">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B180" t="s">
         <v>181</v>
@@ -4261,7 +4261,7 @@
     </row>
     <row r="181" spans="1:3">
       <c r="A181">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B181" t="s">
         <v>182</v>
@@ -4272,7 +4272,7 @@
     </row>
     <row r="182" spans="1:3">
       <c r="A182">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B182" t="s">
         <v>183</v>
@@ -4283,7 +4283,7 @@
     </row>
     <row r="183" spans="1:3">
       <c r="A183">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B183" t="s">
         <v>184</v>
@@ -4294,7 +4294,7 @@
     </row>
     <row r="184" spans="1:3">
       <c r="A184">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B184" t="s">
         <v>185</v>
@@ -4305,29 +4305,29 @@
     </row>
     <row r="185" spans="1:3">
       <c r="A185">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B185" t="s">
         <v>186</v>
       </c>
       <c r="C185" t="s">
-        <v>601</v>
+        <v>186</v>
       </c>
     </row>
     <row r="186" spans="1:3">
       <c r="A186">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B186" t="s">
         <v>187</v>
       </c>
       <c r="C186" t="s">
-        <v>187</v>
+        <v>601</v>
       </c>
     </row>
     <row r="187" spans="1:3">
       <c r="A187">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B187" t="s">
         <v>188</v>
@@ -4338,7 +4338,7 @@
     </row>
     <row r="188" spans="1:3">
       <c r="A188">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B188" t="s">
         <v>189</v>
@@ -4349,7 +4349,7 @@
     </row>
     <row r="189" spans="1:3">
       <c r="A189">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B189" t="s">
         <v>190</v>
@@ -4360,7 +4360,7 @@
     </row>
     <row r="190" spans="1:3">
       <c r="A190">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B190" t="s">
         <v>191</v>
@@ -4371,7 +4371,7 @@
     </row>
     <row r="191" spans="1:3">
       <c r="A191">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B191" t="s">
         <v>192</v>
@@ -4382,7 +4382,7 @@
     </row>
     <row r="192" spans="1:3">
       <c r="A192">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B192" t="s">
         <v>193</v>
@@ -4393,7 +4393,7 @@
     </row>
     <row r="193" spans="1:3">
       <c r="A193">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B193" t="s">
         <v>194</v>
@@ -4404,29 +4404,29 @@
     </row>
     <row r="194" spans="1:3">
       <c r="A194">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B194" t="s">
         <v>195</v>
       </c>
       <c r="C194" t="s">
-        <v>602</v>
+        <v>195</v>
       </c>
     </row>
     <row r="195" spans="1:3">
       <c r="A195">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B195" t="s">
         <v>196</v>
       </c>
       <c r="C195" t="s">
-        <v>196</v>
+        <v>602</v>
       </c>
     </row>
     <row r="196" spans="1:3">
       <c r="A196">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B196" t="s">
         <v>197</v>
@@ -4437,7 +4437,7 @@
     </row>
     <row r="197" spans="1:3">
       <c r="A197">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B197" t="s">
         <v>198</v>
@@ -4448,7 +4448,7 @@
     </row>
     <row r="198" spans="1:3">
       <c r="A198">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B198" t="s">
         <v>199</v>
@@ -4459,7 +4459,7 @@
     </row>
     <row r="199" spans="1:3">
       <c r="A199">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B199" t="s">
         <v>200</v>
@@ -4470,7 +4470,7 @@
     </row>
     <row r="200" spans="1:3">
       <c r="A200">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B200" t="s">
         <v>201</v>
@@ -4481,7 +4481,7 @@
     </row>
     <row r="201" spans="1:3">
       <c r="A201">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B201" t="s">
         <v>202</v>
@@ -4492,7 +4492,7 @@
     </row>
     <row r="202" spans="1:3">
       <c r="A202">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B202" t="s">
         <v>203</v>
@@ -4503,7 +4503,7 @@
     </row>
     <row r="203" spans="1:3">
       <c r="A203">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B203" t="s">
         <v>204</v>
@@ -4514,7 +4514,7 @@
     </row>
     <row r="204" spans="1:3">
       <c r="A204">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B204" t="s">
         <v>205</v>
@@ -4525,7 +4525,7 @@
     </row>
     <row r="205" spans="1:3">
       <c r="A205">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B205" t="s">
         <v>206</v>
@@ -4536,7 +4536,7 @@
     </row>
     <row r="206" spans="1:3">
       <c r="A206">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B206" t="s">
         <v>207</v>
@@ -4547,7 +4547,7 @@
     </row>
     <row r="207" spans="1:3">
       <c r="A207">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B207" t="s">
         <v>208</v>
@@ -4558,7 +4558,7 @@
     </row>
     <row r="208" spans="1:3">
       <c r="A208">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B208" t="s">
         <v>209</v>
@@ -4569,7 +4569,7 @@
     </row>
     <row r="209" spans="1:3">
       <c r="A209">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B209" t="s">
         <v>210</v>
@@ -4580,7 +4580,7 @@
     </row>
     <row r="210" spans="1:3">
       <c r="A210">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B210" t="s">
         <v>211</v>
@@ -4591,7 +4591,7 @@
     </row>
     <row r="211" spans="1:3">
       <c r="A211">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B211" t="s">
         <v>212</v>
@@ -4602,7 +4602,7 @@
     </row>
     <row r="212" spans="1:3">
       <c r="A212">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B212" t="s">
         <v>213</v>
@@ -4613,7 +4613,7 @@
     </row>
     <row r="213" spans="1:3">
       <c r="A213">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B213" t="s">
         <v>214</v>
@@ -4624,29 +4624,29 @@
     </row>
     <row r="214" spans="1:3">
       <c r="A214">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B214" t="s">
         <v>215</v>
       </c>
       <c r="C214" t="s">
-        <v>603</v>
+        <v>215</v>
       </c>
     </row>
     <row r="215" spans="1:3">
       <c r="A215">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B215" t="s">
         <v>216</v>
       </c>
       <c r="C215" t="s">
-        <v>216</v>
+        <v>603</v>
       </c>
     </row>
     <row r="216" spans="1:3">
       <c r="A216">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B216" t="s">
         <v>217</v>
@@ -4657,7 +4657,7 @@
     </row>
     <row r="217" spans="1:3">
       <c r="A217">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B217" t="s">
         <v>218</v>
@@ -4668,7 +4668,7 @@
     </row>
     <row r="218" spans="1:3">
       <c r="A218">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B218" t="s">
         <v>219</v>
@@ -4679,7 +4679,7 @@
     </row>
     <row r="219" spans="1:3">
       <c r="A219">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B219" t="s">
         <v>220</v>
@@ -4690,7 +4690,7 @@
     </row>
     <row r="220" spans="1:3">
       <c r="A220">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="B220" t="s">
         <v>221</v>
@@ -4701,7 +4701,7 @@
     </row>
     <row r="221" spans="1:3">
       <c r="A221">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B221" t="s">
         <v>222</v>
@@ -4712,29 +4712,29 @@
     </row>
     <row r="222" spans="1:3">
       <c r="A222">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B222" t="s">
         <v>223</v>
       </c>
       <c r="C222" t="s">
-        <v>604</v>
+        <v>223</v>
       </c>
     </row>
     <row r="223" spans="1:3">
       <c r="A223">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B223" t="s">
         <v>224</v>
       </c>
       <c r="C223" t="s">
-        <v>224</v>
+        <v>604</v>
       </c>
     </row>
     <row r="224" spans="1:3">
       <c r="A224">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B224" t="s">
         <v>225</v>
@@ -4745,7 +4745,7 @@
     </row>
     <row r="225" spans="1:3">
       <c r="A225">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B225" t="s">
         <v>226</v>
@@ -4756,7 +4756,7 @@
     </row>
     <row r="226" spans="1:3">
       <c r="A226">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B226" t="s">
         <v>227</v>
@@ -4767,7 +4767,7 @@
     </row>
     <row r="227" spans="1:3">
       <c r="A227">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B227" t="s">
         <v>228</v>
